--- a/AndonReport.xlsx
+++ b/AndonReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eren.yilmaz\Desktop\AndonReportSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FF352-F149-4F1F-AC11-D5EC06BCA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D759B3-EE1A-4E47-9129-D5F3A8A42871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Day" sheetId="1" r:id="rId1"/>
     <sheet name="Afternoon" sheetId="2" r:id="rId2"/>
     <sheet name="Night" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary Tab" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Day!$A$1:$BM$14</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="52">
   <si>
     <t>Total /Month</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Press Shop 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -16059,7 +16062,7 @@
     <row r="1" spans="1:65" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="102">
         <f ca="1">NOW()</f>
-        <v>45037.401352083332</v>
+        <v>45037.420516319442</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="114" t="s">
@@ -26447,7 +26450,7 @@
     <row r="1" spans="1:65" ht="38.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="102">
         <f ca="1">NOW()</f>
-        <v>45037.401352083332</v>
+        <v>45037.420516319442</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="114" t="s">
@@ -36856,18 +36859,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FF8FBE-F4A2-4553-B17C-A4C7BACA8473}">
   <dimension ref="A1:AO102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:AH12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="60"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="60" customWidth="1"/>
+    <col min="3" max="34" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18" customHeight="1">
+    <row r="1" spans="1:34" ht="27" customHeight="1">
       <c r="A1" s="134" t="s">
         <v>44</v>
       </c>
@@ -36905,7 +36909,7 @@
       <c r="AG1" s="135"/>
       <c r="AH1" s="135"/>
     </row>
-    <row r="2" spans="1:34" ht="14.4" customHeight="1">
+    <row r="2" spans="1:34" ht="27" customHeight="1">
       <c r="A2" s="134"/>
       <c r="B2" s="135"/>
       <c r="C2" s="135"/>
@@ -36941,7 +36945,7 @@
       <c r="AG2" s="135"/>
       <c r="AH2" s="135"/>
     </row>
-    <row r="3" spans="1:34" ht="14.4" customHeight="1" thickBot="1">
+    <row r="3" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A3" s="134"/>
       <c r="B3" s="135"/>
       <c r="C3" s="135"/>
@@ -36977,7 +36981,7 @@
       <c r="AG3" s="135"/>
       <c r="AH3" s="135"/>
     </row>
-    <row r="4" spans="1:34" ht="14.4" customHeight="1" thickTop="1">
+    <row r="4" spans="1:34" ht="27" customHeight="1" thickTop="1">
       <c r="A4" s="139"/>
       <c r="B4" s="140"/>
       <c r="C4" s="141"/>
@@ -37075,7 +37079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="14.4" customHeight="1" thickBot="1">
+    <row r="5" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A5" s="142"/>
       <c r="B5" s="143"/>
       <c r="C5" s="144"/>
@@ -37111,7 +37115,7 @@
       <c r="AG5" s="146"/>
       <c r="AH5" s="146"/>
     </row>
-    <row r="6" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickTop="1">
+    <row r="6" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickTop="1">
       <c r="A6" s="132" t="s">
         <v>45</v>
       </c>
@@ -37149,7 +37153,7 @@
       <c r="AG6" s="133"/>
       <c r="AH6" s="133"/>
     </row>
-    <row r="7" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1">
+    <row r="7" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="132"/>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -37185,7 +37189,7 @@
       <c r="AG7" s="133"/>
       <c r="AH7" s="133"/>
     </row>
-    <row r="8" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="8" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A8" s="137"/>
       <c r="B8" s="138"/>
       <c r="C8" s="138"/>
@@ -37221,7 +37225,7 @@
       <c r="AG8" s="138"/>
       <c r="AH8" s="138"/>
     </row>
-    <row r="9" spans="1:34" ht="14.4" customHeight="1" thickTop="1" thickBot="1">
+    <row r="9" spans="1:34" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="147" t="s">
         <v>1</v>
       </c>
@@ -37352,7 +37356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="10" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="177" t="s">
         <v>2</v>
       </c>
@@ -37483,7 +37487,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1">
+    <row r="11" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="183" t="s">
         <v>48</v>
       </c>
@@ -37521,7 +37525,7 @@
       <c r="AG11" s="183"/>
       <c r="AH11" s="183"/>
     </row>
-    <row r="12" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="12" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A12" s="184"/>
       <c r="B12" s="184"/>
       <c r="C12" s="184"/>
@@ -37557,7 +37561,7 @@
       <c r="AG12" s="184"/>
       <c r="AH12" s="184"/>
     </row>
-    <row r="13" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1">
+    <row r="13" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A13" s="153" t="s">
         <v>3</v>
       </c>
@@ -37688,7 +37692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1">
+    <row r="14" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A14" s="153" t="s">
         <v>4</v>
       </c>
@@ -37819,7 +37823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="15" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A15" s="156" t="s">
         <v>5</v>
       </c>
@@ -37950,7 +37954,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="16" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A16" s="159"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -37986,7 +37990,7 @@
       <c r="AG16" s="111"/>
       <c r="AH16" s="160"/>
     </row>
-    <row r="17" spans="1:34" ht="18">
+    <row r="17" spans="1:36" ht="27" customHeight="1">
       <c r="A17" s="161" t="s">
         <v>24</v>
       </c>
@@ -38117,7 +38121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="18">
+    <row r="18" spans="1:36" ht="27" customHeight="1">
       <c r="A18" s="164" t="s">
         <v>30</v>
       </c>
@@ -38248,7 +38252,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="18.600000000000001" thickBot="1">
+    <row r="19" spans="1:36" ht="27" customHeight="1" thickBot="1">
       <c r="A19" s="179" t="s">
         <v>38</v>
       </c>
@@ -38378,8 +38382,11 @@
         <f>Day!AG56</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1">
+    <row r="20" spans="1:36" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A20" s="183" t="s">
         <v>49</v>
       </c>
@@ -38417,7 +38424,7 @@
       <c r="AG20" s="183"/>
       <c r="AH20" s="183"/>
     </row>
-    <row r="21" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="21" spans="1:36" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A21" s="184"/>
       <c r="B21" s="184"/>
       <c r="C21" s="184"/>
@@ -38453,7 +38460,7 @@
       <c r="AG21" s="184"/>
       <c r="AH21" s="184"/>
     </row>
-    <row r="22" spans="1:34" ht="14.4" customHeight="1">
+    <row r="22" spans="1:36" ht="27" customHeight="1">
       <c r="A22" s="153" t="s">
         <v>6</v>
       </c>
@@ -38584,7 +38591,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="14.4" customHeight="1">
+    <row r="23" spans="1:36" ht="27" customHeight="1">
       <c r="A23" s="153" t="s">
         <v>7</v>
       </c>
@@ -38715,7 +38722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="24" spans="1:36" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A24" s="156" t="s">
         <v>5</v>
       </c>
@@ -38846,7 +38853,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1" thickBot="1">
+    <row r="25" spans="1:36" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A25" s="159"/>
       <c r="B25" s="111"/>
       <c r="C25" s="111"/>
@@ -38882,7 +38889,7 @@
       <c r="AG25" s="111"/>
       <c r="AH25" s="160"/>
     </row>
-    <row r="26" spans="1:34" ht="18">
+    <row r="26" spans="1:36" ht="27" customHeight="1">
       <c r="A26" s="161" t="s">
         <v>24</v>
       </c>
@@ -39013,7 +39020,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="18">
+    <row r="27" spans="1:36" ht="27" customHeight="1">
       <c r="A27" s="164" t="s">
         <v>30</v>
       </c>
@@ -39144,7 +39151,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="18.600000000000001" thickBot="1">
+    <row r="28" spans="1:36" ht="27" customHeight="1" thickBot="1">
       <c r="A28" s="179" t="s">
         <v>38</v>
       </c>
@@ -39275,7 +39282,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="60" customFormat="1" ht="14.4" customHeight="1">
+    <row r="29" spans="1:36" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A29" s="183" t="s">
         <v>50</v>
       </c>
@@ -39313,7 +39320,7 @@
       <c r="AG29" s="183"/>
       <c r="AH29" s="183"/>
     </row>
-    <row r="30" spans="1:34" ht="14.4" customHeight="1" thickBot="1">
+    <row r="30" spans="1:36" ht="27" customHeight="1" thickBot="1">
       <c r="A30" s="184"/>
       <c r="B30" s="184"/>
       <c r="C30" s="184"/>
@@ -39349,7 +39356,7 @@
       <c r="AG30" s="184"/>
       <c r="AH30" s="184"/>
     </row>
-    <row r="31" spans="1:34" ht="21">
+    <row r="31" spans="1:36" ht="27" customHeight="1">
       <c r="A31" s="153" t="s">
         <v>8</v>
       </c>
@@ -39480,7 +39487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="21">
+    <row r="32" spans="1:36" ht="27" customHeight="1">
       <c r="A32" s="153" t="s">
         <v>9</v>
       </c>
@@ -39611,7 +39618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="60" customFormat="1" ht="21.6" thickBot="1">
+    <row r="33" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="A33" s="156" t="s">
         <v>5</v>
       </c>
@@ -39742,7 +39749,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="21.6" thickBot="1">
+    <row r="34" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A34" s="159"/>
       <c r="B34" s="111"/>
       <c r="C34" s="111"/>
@@ -39778,7 +39785,7 @@
       <c r="AG34" s="169"/>
       <c r="AH34" s="170"/>
     </row>
-    <row r="35" spans="1:34" ht="18">
+    <row r="35" spans="1:34" ht="27" customHeight="1">
       <c r="A35" s="161" t="s">
         <v>24</v>
       </c>
@@ -39909,7 +39916,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="18">
+    <row r="36" spans="1:34" ht="27" customHeight="1">
       <c r="A36" s="164" t="s">
         <v>30</v>
       </c>
@@ -40040,7 +40047,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="18.600000000000001" thickBot="1">
+    <row r="37" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A37" s="165" t="s">
         <v>38</v>
       </c>
@@ -40171,7 +40178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="15" thickTop="1">
+    <row r="38" spans="1:34" ht="27" customHeight="1" thickTop="1">
       <c r="A38" s="171" t="s">
         <v>46</v>
       </c>
@@ -40209,7 +40216,7 @@
       <c r="AG38" s="172"/>
       <c r="AH38" s="173"/>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:34" ht="27" customHeight="1">
       <c r="A39" s="171"/>
       <c r="B39" s="172"/>
       <c r="C39" s="172"/>
@@ -40245,7 +40252,7 @@
       <c r="AG39" s="172"/>
       <c r="AH39" s="173"/>
     </row>
-    <row r="40" spans="1:34" ht="15" thickBot="1">
+    <row r="40" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A40" s="174"/>
       <c r="B40" s="175"/>
       <c r="C40" s="175"/>
@@ -40281,7 +40288,7 @@
       <c r="AG40" s="175"/>
       <c r="AH40" s="176"/>
     </row>
-    <row r="41" spans="1:34" ht="19.2" thickTop="1" thickBot="1">
+    <row r="41" spans="1:34" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A41" s="147" t="s">
         <v>1</v>
       </c>
@@ -40412,7 +40419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="42" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A42" s="177" t="s">
         <v>2</v>
       </c>
@@ -40543,7 +40550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" s="60" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="43" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A43" s="183" t="s">
         <v>48</v>
       </c>
@@ -40581,7 +40588,7 @@
       <c r="AG43" s="183"/>
       <c r="AH43" s="183"/>
     </row>
-    <row r="44" spans="1:34" ht="19.2" customHeight="1" thickBot="1">
+    <row r="44" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A44" s="184"/>
       <c r="B44" s="184"/>
       <c r="C44" s="184"/>
@@ -40617,7 +40624,7 @@
       <c r="AG44" s="184"/>
       <c r="AH44" s="184"/>
     </row>
-    <row r="45" spans="1:34" ht="21.6" customHeight="1">
+    <row r="45" spans="1:34" ht="27" customHeight="1">
       <c r="A45" s="153" t="s">
         <v>3</v>
       </c>
@@ -40748,7 +40755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="21" customHeight="1">
+    <row r="46" spans="1:34" ht="27" customHeight="1">
       <c r="A46" s="153" t="s">
         <v>4</v>
       </c>
@@ -40879,7 +40886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="21.6" customHeight="1" thickBot="1">
+    <row r="47" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A47" s="156" t="s">
         <v>5</v>
       </c>
@@ -41010,7 +41017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="21.6" thickBot="1">
+    <row r="48" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A48" s="159"/>
       <c r="B48" s="111"/>
       <c r="C48" s="111"/>
@@ -41046,7 +41053,7 @@
       <c r="AG48" s="111"/>
       <c r="AH48" s="160"/>
     </row>
-    <row r="49" spans="1:34" ht="18" customHeight="1">
+    <row r="49" spans="1:34" ht="27" customHeight="1">
       <c r="A49" s="161" t="s">
         <v>24</v>
       </c>
@@ -41177,7 +41184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="18" customHeight="1">
+    <row r="50" spans="1:34" ht="27" customHeight="1">
       <c r="A50" s="164" t="s">
         <v>30</v>
       </c>
@@ -41308,7 +41315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="51" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A51" s="179" t="s">
         <v>38</v>
       </c>
@@ -41439,7 +41446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" s="60" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="52" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A52" s="183" t="s">
         <v>49</v>
       </c>
@@ -41477,7 +41484,7 @@
       <c r="AG52" s="183"/>
       <c r="AH52" s="183"/>
     </row>
-    <row r="53" spans="1:34" ht="19.2" customHeight="1" thickBot="1">
+    <row r="53" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A53" s="184"/>
       <c r="B53" s="184"/>
       <c r="C53" s="184"/>
@@ -41513,7 +41520,7 @@
       <c r="AG53" s="184"/>
       <c r="AH53" s="184"/>
     </row>
-    <row r="54" spans="1:34" ht="21.6" customHeight="1">
+    <row r="54" spans="1:34" ht="27" customHeight="1">
       <c r="A54" s="153" t="s">
         <v>6</v>
       </c>
@@ -41644,7 +41651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="21" customHeight="1">
+    <row r="55" spans="1:34" ht="27" customHeight="1">
       <c r="A55" s="153" t="s">
         <v>7</v>
       </c>
@@ -41775,7 +41782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="21.6" customHeight="1" thickBot="1">
+    <row r="56" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A56" s="156" t="s">
         <v>5</v>
       </c>
@@ -41906,7 +41913,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="21.6" thickBot="1">
+    <row r="57" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A57" s="159"/>
       <c r="B57" s="111"/>
       <c r="C57" s="111"/>
@@ -41942,7 +41949,7 @@
       <c r="AG57" s="111"/>
       <c r="AH57" s="160"/>
     </row>
-    <row r="58" spans="1:34" ht="18" customHeight="1">
+    <row r="58" spans="1:34" ht="27" customHeight="1">
       <c r="A58" s="161" t="s">
         <v>24</v>
       </c>
@@ -42073,7 +42080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="18" customHeight="1">
+    <row r="59" spans="1:34" ht="27" customHeight="1">
       <c r="A59" s="164" t="s">
         <v>30</v>
       </c>
@@ -42204,7 +42211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="60" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A60" s="179" t="s">
         <v>38</v>
       </c>
@@ -42335,7 +42342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" s="60" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="61" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A61" s="183" t="s">
         <v>50</v>
       </c>
@@ -42373,7 +42380,7 @@
       <c r="AG61" s="183"/>
       <c r="AH61" s="183"/>
     </row>
-    <row r="62" spans="1:34" ht="19.2" customHeight="1" thickBot="1">
+    <row r="62" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A62" s="184"/>
       <c r="B62" s="184"/>
       <c r="C62" s="184"/>
@@ -42409,7 +42416,7 @@
       <c r="AG62" s="184"/>
       <c r="AH62" s="184"/>
     </row>
-    <row r="63" spans="1:34" ht="21.6" customHeight="1">
+    <row r="63" spans="1:34" ht="27" customHeight="1">
       <c r="A63" s="153" t="s">
         <v>8</v>
       </c>
@@ -42540,7 +42547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="21" customHeight="1">
+    <row r="64" spans="1:34" ht="27" customHeight="1">
       <c r="A64" s="153" t="s">
         <v>9</v>
       </c>
@@ -42671,7 +42678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="21.6" customHeight="1" thickBot="1">
+    <row r="65" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A65" s="156" t="s">
         <v>5</v>
       </c>
@@ -42802,7 +42809,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="21.6" thickBot="1">
+    <row r="66" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A66" s="159"/>
       <c r="B66" s="111"/>
       <c r="C66" s="111"/>
@@ -42838,7 +42845,7 @@
       <c r="AG66" s="169"/>
       <c r="AH66" s="170"/>
     </row>
-    <row r="67" spans="1:34" ht="18" customHeight="1">
+    <row r="67" spans="1:34" ht="27" customHeight="1">
       <c r="A67" s="161" t="s">
         <v>24</v>
       </c>
@@ -42969,7 +42976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="18" customHeight="1">
+    <row r="68" spans="1:34" ht="27" customHeight="1">
       <c r="A68" s="164" t="s">
         <v>30</v>
       </c>
@@ -43100,7 +43107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="69" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A69" s="165" t="s">
         <v>38</v>
       </c>
@@ -43231,7 +43238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" thickTop="1">
+    <row r="70" spans="1:34" ht="27" customHeight="1" thickTop="1">
       <c r="A70" s="171" t="s">
         <v>47</v>
       </c>
@@ -43269,7 +43276,7 @@
       <c r="AG70" s="172"/>
       <c r="AH70" s="173"/>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" ht="27" customHeight="1">
       <c r="A71" s="171"/>
       <c r="B71" s="172"/>
       <c r="C71" s="172"/>
@@ -43305,7 +43312,7 @@
       <c r="AG71" s="172"/>
       <c r="AH71" s="173"/>
     </row>
-    <row r="72" spans="1:34" ht="15" thickBot="1">
+    <row r="72" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A72" s="174"/>
       <c r="B72" s="175"/>
       <c r="C72" s="175"/>
@@ -43341,7 +43348,7 @@
       <c r="AG72" s="175"/>
       <c r="AH72" s="176"/>
     </row>
-    <row r="73" spans="1:34" ht="19.2" thickTop="1" thickBot="1">
+    <row r="73" spans="1:34" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="A73" s="147" t="s">
         <v>1</v>
       </c>
@@ -43472,7 +43479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="74" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A74" s="177" t="s">
         <v>2</v>
       </c>
@@ -43603,7 +43610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" s="60" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="75" spans="1:34" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A75" s="183" t="s">
         <v>48</v>
       </c>
@@ -43641,7 +43648,7 @@
       <c r="AG75" s="183"/>
       <c r="AH75" s="183"/>
     </row>
-    <row r="76" spans="1:34" ht="19.2" customHeight="1" thickBot="1">
+    <row r="76" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A76" s="184"/>
       <c r="B76" s="184"/>
       <c r="C76" s="184"/>
@@ -43677,7 +43684,7 @@
       <c r="AG76" s="184"/>
       <c r="AH76" s="184"/>
     </row>
-    <row r="77" spans="1:34" ht="21.6" customHeight="1">
+    <row r="77" spans="1:34" ht="27" customHeight="1">
       <c r="A77" s="153" t="s">
         <v>3</v>
       </c>
@@ -43808,7 +43815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="21" customHeight="1">
+    <row r="78" spans="1:34" ht="27" customHeight="1">
       <c r="A78" s="153" t="s">
         <v>4</v>
       </c>
@@ -43939,7 +43946,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:34" ht="21.6" customHeight="1" thickBot="1">
+    <row r="79" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A79" s="156" t="s">
         <v>5</v>
       </c>
@@ -44070,7 +44077,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="21.6" thickBot="1">
+    <row r="80" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A80" s="159"/>
       <c r="B80" s="111"/>
       <c r="C80" s="111"/>
@@ -44106,7 +44113,7 @@
       <c r="AG80" s="111"/>
       <c r="AH80" s="160"/>
     </row>
-    <row r="81" spans="1:41" ht="18" customHeight="1">
+    <row r="81" spans="1:41" ht="27" customHeight="1">
       <c r="A81" s="161" t="s">
         <v>24</v>
       </c>
@@ -44237,7 +44244,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:41" ht="18" customHeight="1">
+    <row r="82" spans="1:41" ht="27" customHeight="1">
       <c r="A82" s="164" t="s">
         <v>30</v>
       </c>
@@ -44368,7 +44375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:41" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="83" spans="1:41" ht="27" customHeight="1" thickBot="1">
       <c r="A83" s="179" t="s">
         <v>38</v>
       </c>
@@ -44499,7 +44506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:41" s="60" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="84" spans="1:41" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A84" s="183" t="s">
         <v>49</v>
       </c>
@@ -44537,7 +44544,7 @@
       <c r="AG84" s="183"/>
       <c r="AH84" s="183"/>
     </row>
-    <row r="85" spans="1:41" ht="19.2" customHeight="1" thickBot="1">
+    <row r="85" spans="1:41" ht="27" customHeight="1" thickBot="1">
       <c r="A85" s="184"/>
       <c r="B85" s="184"/>
       <c r="C85" s="184"/>
@@ -44575,7 +44582,7 @@
       <c r="AN85" s="136"/>
       <c r="AO85" s="136"/>
     </row>
-    <row r="86" spans="1:41" ht="21.6" customHeight="1">
+    <row r="86" spans="1:41" ht="27" customHeight="1">
       <c r="A86" s="153" t="s">
         <v>6</v>
       </c>
@@ -44708,7 +44715,7 @@
       <c r="AN86" s="136"/>
       <c r="AO86" s="136"/>
     </row>
-    <row r="87" spans="1:41" ht="21" customHeight="1">
+    <row r="87" spans="1:41" ht="27" customHeight="1">
       <c r="A87" s="153" t="s">
         <v>7</v>
       </c>
@@ -44841,7 +44848,7 @@
       <c r="AN87" s="136"/>
       <c r="AO87" s="136"/>
     </row>
-    <row r="88" spans="1:41" ht="21.6" customHeight="1" thickBot="1">
+    <row r="88" spans="1:41" ht="27" customHeight="1" thickBot="1">
       <c r="A88" s="156" t="s">
         <v>5</v>
       </c>
@@ -44974,7 +44981,7 @@
       <c r="AN88" s="136"/>
       <c r="AO88" s="136"/>
     </row>
-    <row r="89" spans="1:41" ht="21.6" thickBot="1">
+    <row r="89" spans="1:41" ht="27" customHeight="1" thickBot="1">
       <c r="A89" s="159"/>
       <c r="B89" s="111"/>
       <c r="C89" s="111"/>
@@ -45010,7 +45017,7 @@
       <c r="AG89" s="111"/>
       <c r="AH89" s="160"/>
     </row>
-    <row r="90" spans="1:41" ht="18" customHeight="1">
+    <row r="90" spans="1:41" ht="27" customHeight="1">
       <c r="A90" s="161" t="s">
         <v>24</v>
       </c>
@@ -45141,7 +45148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:41" ht="18" customHeight="1">
+    <row r="91" spans="1:41" ht="27" customHeight="1">
       <c r="A91" s="164" t="s">
         <v>30</v>
       </c>
@@ -45272,7 +45279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:41" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="92" spans="1:41" ht="27" customHeight="1" thickBot="1">
       <c r="A92" s="179" t="s">
         <v>38</v>
       </c>
@@ -45403,7 +45410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:41" s="60" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="93" spans="1:41" s="60" customFormat="1" ht="27" customHeight="1">
       <c r="A93" s="183" t="s">
         <v>50</v>
       </c>
@@ -45441,7 +45448,7 @@
       <c r="AG93" s="183"/>
       <c r="AH93" s="183"/>
     </row>
-    <row r="94" spans="1:41" ht="19.2" customHeight="1" thickBot="1">
+    <row r="94" spans="1:41" ht="27" customHeight="1" thickBot="1">
       <c r="A94" s="184"/>
       <c r="B94" s="184"/>
       <c r="C94" s="184"/>
@@ -45477,7 +45484,7 @@
       <c r="AG94" s="184"/>
       <c r="AH94" s="184"/>
     </row>
-    <row r="95" spans="1:41" ht="21.6" customHeight="1">
+    <row r="95" spans="1:41" ht="27" customHeight="1">
       <c r="A95" s="153" t="s">
         <v>8</v>
       </c>
@@ -45608,7 +45615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:41" ht="21" customHeight="1">
+    <row r="96" spans="1:41" ht="27" customHeight="1">
       <c r="A96" s="153" t="s">
         <v>9</v>
       </c>
@@ -45739,7 +45746,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="21.6" customHeight="1" thickBot="1">
+    <row r="97" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A97" s="156" t="s">
         <v>5</v>
       </c>
@@ -45870,7 +45877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="21.6" thickBot="1">
+    <row r="98" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A98" s="159"/>
       <c r="B98" s="111"/>
       <c r="C98" s="111"/>
@@ -45906,7 +45913,7 @@
       <c r="AG98" s="169"/>
       <c r="AH98" s="170"/>
     </row>
-    <row r="99" spans="1:34" ht="18" customHeight="1">
+    <row r="99" spans="1:34" ht="27" customHeight="1">
       <c r="A99" s="161" t="s">
         <v>24</v>
       </c>
@@ -46037,7 +46044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="18" customHeight="1">
+    <row r="100" spans="1:34" ht="27" customHeight="1">
       <c r="A100" s="164" t="s">
         <v>30</v>
       </c>
@@ -46168,7 +46175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="101" spans="1:34" ht="27" customHeight="1" thickBot="1">
       <c r="A101" s="165" t="s">
         <v>38</v>
       </c>
@@ -46299,7 +46306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34" ht="15" thickTop="1"/>
+    <row r="102" spans="1:34" ht="27" customHeight="1" thickTop="1"/>
   </sheetData>
   <mergeCells count="114">
     <mergeCell ref="A84:AH85"/>
